--- a/legislator/property/output/normal/蘇震清_2011-11-17_財產申報表_tmp98701.xlsx
+++ b/legislator/property/output/normal/蘇震清_2011-11-17_財產申報表_tmp98701.xlsx
@@ -20,9 +20,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="116">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="129">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市溝美段一小段01480000地號</t>
+  </si>
+  <si>
+    <t>嘉義市遠東段03770002地號</t>
+  </si>
+  <si>
+    <t>嘉義市遠東段06300000地號</t>
+  </si>
+  <si>
+    <t>嘉義市遠東段06310000地號</t>
+  </si>
+  <si>
+    <t>嘉義市遠東段06320000地號</t>
+  </si>
+  <si>
+    <t>屏東縣内埔鄉新東勢段04610000地號</t>
+  </si>
+  <si>
+    <t>屛東縣萬巒鄉五溝水段02150007地號</t>
+  </si>
+  <si>
+    <t>屏東縣内埔鄉新東勢段02170012地號</t>
+  </si>
+  <si>
+    <t>1000分之53</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>7分之4</t>
+  </si>
+  <si>
+    <t>10000分之399</t>
+  </si>
+  <si>
+    <t>廖靖汝</t>
+  </si>
+  <si>
+    <t>蘇震清</t>
+  </si>
+  <si>
+    <t>87年11月03日</t>
+  </si>
+  <si>
+    <t>95年08月01日</t>
+  </si>
+  <si>
+    <t>94年04月08日</t>
+  </si>
+  <si>
+    <t>100年09月13曰</t>
+  </si>
+  <si>
+    <t>100年11月16曰</t>
+  </si>
+  <si>
+    <t>100年11月17日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>拍賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>L750000</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-17</t>
+  </si>
+  <si>
+    <t>tmp98701</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,91 +172,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>屏東縣屏東市溝美段一小段 0148-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義市遠東段0377-0002地號</t>
-  </si>
-  <si>
-    <t>嘉義市遠東段0630-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義市遠東段0631-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義市遠東段0632-0000地號</t>
-  </si>
-  <si>
-    <t>屏東縣内埔鄉新東勢段 0461-0000 地號</t>
-  </si>
-  <si>
-    <t>屛東縣萬巒鄉五溝水段 0215-0007 地號</t>
-  </si>
-  <si>
-    <t>屏東縣内埔鄉新東勢段 0217-0012 地號</t>
-  </si>
-  <si>
-    <t>1000分之 53</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>7分之4</t>
-  </si>
-  <si>
-    <t>10000分之 399</t>
-  </si>
-  <si>
-    <t>廖靖汝</t>
-  </si>
-  <si>
-    <t>蘇震清</t>
-  </si>
-  <si>
-    <t>87年11月 03日</t>
-  </si>
-  <si>
-    <t>95年08月 01日</t>
-  </si>
-  <si>
-    <t>94年04月 08日</t>
-  </si>
-  <si>
-    <t>100 年 09 月13曰</t>
-  </si>
-  <si>
-    <t>100 年 11 月16曰</t>
-  </si>
-  <si>
-    <t>100 年 11 月17日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
-  </si>
-  <si>
-    <t>拍賣</t>
-  </si>
-  <si>
-    <t>買賣 •</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>L,750,000</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市溝美段一小段 00875-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義市遠東段00064-000建號</t>
+    <t>屏東縣屏東市溝美段一小段00875000建號</t>
+  </si>
+  <si>
+    <t>嘉義市遠東段00064000建號</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -139,16 +187,16 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>登記'(取得）時間</t>
+    <t>登記(取得）時間</t>
   </si>
   <si>
     <t>登記（取)凉因</t>
   </si>
   <si>
-    <t>三陽本田'</t>
-  </si>
-  <si>
-    <t>97年05月 06日</t>
+    <t>三陽本田</t>
+  </si>
+  <si>
+    <t>97年05月06日</t>
   </si>
   <si>
     <t>.買賣</t>
@@ -172,16 +220,16 @@
     <t>大眾商業銀行屏東分行</t>
   </si>
   <si>
-    <t>屏東繁華郵局（第2 3支 局）</t>
+    <t>屏東繁華郵局（第23支局）</t>
   </si>
   <si>
     <t>大眾商業银行屏東分行</t>
   </si>
   <si>
-    <t>嘉義後湖郵局（第15支 局）</t>
-  </si>
-  <si>
-    <t>屏東廣東路郵局(第1 9支 局） .</t>
+    <t>嘉義後湖郵局（第15支局）</t>
+  </si>
+  <si>
+    <t>屏東廣東路郵局(第19支局）.</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -217,25 +265,25 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 專 種類</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財專種類</t>
   </si>
   <si>
     <t>台鳳高爾夫球場會員證</t>
   </si>
   <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項1 /</t>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項1</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣760, 000 7t)</t>
+    <t>1額：新臺幣7600007t)</t>
   </si>
   <si>
     <t>所有.人</t>
@@ -271,22 +319,22 @@
     <t>安泰喬壽還本終身壽險</t>
   </si>
   <si>
-    <t>89.09.23-109.09.23 銀行扣 款年繳53555</t>
-  </si>
-  <si>
-    <t>89.09.23-109.09.23 銀行扣 款年繳44009</t>
-  </si>
-  <si>
-    <t>89.09.23-109.09.23 銀行扣 款年缴19274</t>
-  </si>
-  <si>
-    <t>89.09.23-109.09.23 銀行扣 款年繳18476</t>
-  </si>
-  <si>
-    <t>92.08.12-112.08.12 '銀行扣 款年繳68846</t>
-  </si>
-  <si>
-    <t>92.08.12-112.08.12 銀行扣 款 70084</t>
+    <t>89.09.23109.09.23銀行扣款年繳53555</t>
+  </si>
+  <si>
+    <t>89.09.23109.09.23銀行扣款年繳44009</t>
+  </si>
+  <si>
+    <t>89.09.23109.09.23銀行扣款年缴19274</t>
+  </si>
+  <si>
+    <t>89.09.23109.09.23銀行扣款年繳18476</t>
+  </si>
+  <si>
+    <t>92.08.12112.08.12銀行扣款年繳68846</t>
+  </si>
+  <si>
+    <t>92.08.12112.08.12銀行扣款70084</t>
   </si>
   <si>
     <t>種.類</t>
@@ -328,13 +376,10 @@
     <t>南島休閒育樂股份有限公司</t>
   </si>
   <si>
-    <t>台灣銀行屏東分行 屏東縣屏東市中山路 -</t>
-  </si>
-  <si>
-    <t>台灣土地銀行 屏東縣屏東市逢甲路</t>
-  </si>
-  <si>
-    <t>台灣銀行屏東分行 屏東縣屏東市中山路</t>
+    <t>台灣銀行屏東分行屏東縣屏東市中山路</t>
+  </si>
+  <si>
+    <t>台灣土地銀行屏東縣屏東市逢甲路</t>
   </si>
   <si>
     <t>投資事業地址</t>
@@ -346,25 +391,19 @@
     <t>投資金額</t>
   </si>
   <si>
-    <t>100年03月 28日</t>
-  </si>
-  <si>
-    <t>取得（發生） 時 間</t>
-  </si>
-  <si>
-    <t>95年08月 23日</t>
-  </si>
-  <si>
-    <t>貸款一中期 擔保放款</t>
+    <t>100年03月28日</t>
+  </si>
+  <si>
+    <t>95年08月23日</t>
+  </si>
+  <si>
+    <t>貸款一中期擔保放款</t>
   </si>
   <si>
     <t>房貸</t>
   </si>
   <si>
-    <t>貸款一治家 成長貸款</t>
-  </si>
-  <si>
-    <t>取得（發生） 原 因</t>
+    <t>貸款一治家成長貸款</t>
   </si>
   <si>
     <t>投資</t>
@@ -726,13 +765,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,213 +793,402 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>487</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="M2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>289</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2">
         <v>2797714</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>189</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2">
         <v>1645714</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2">
         <v>493714</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>976</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2">
         <v>8228571</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>1756</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2">
         <v>1480000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>2505</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="M8" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>6797</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2">
         <v>800000</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -978,25 +1206,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1004,25 +1232,25 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <v>96.66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1030,22 +1258,22 @@
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2">
         <v>481.98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2">
         <v>3785143</v>
@@ -1066,22 +1294,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1089,19 +1317,19 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2">
         <v>830000</v>
@@ -1122,19 +1350,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1142,16 +1370,16 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>319388</v>
@@ -1162,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2">
         <v>2356348</v>
@@ -1182,16 +1410,16 @@
         <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>674132</v>
@@ -1202,16 +1430,16 @@
         <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F5" s="2">
         <v>69250</v>
@@ -1222,16 +1450,16 @@
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2">
         <v>450095</v>
@@ -1242,16 +1470,16 @@
         <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F7" s="2">
         <v>142828</v>
@@ -1262,16 +1490,16 @@
         <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F8" s="2">
         <v>366243</v>
@@ -1292,22 +1520,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1315,14 +1543,14 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1332,22 +1560,22 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1355,14 +1583,14 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2">
         <v>760000</v>
@@ -1384,16 +1612,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1401,16 +1629,16 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1418,16 +1646,16 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1435,16 +1663,16 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1452,16 +1680,16 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1469,16 +1697,16 @@
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1486,16 +1714,16 @@
         <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1513,22 +1741,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1536,22 +1764,22 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2">
         <v>5339618</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1559,22 +1787,22 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2">
         <v>663000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1582,22 +1810,22 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E4" s="2">
         <v>371101</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1605,22 +1833,22 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1628,22 +1856,22 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇震清_2011-11-17_財產申報表_tmp98701.xlsx
+++ b/legislator/property/output/normal/蘇震清_2011-11-17_財產申報表_tmp98701.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>屏東縣屏東市溝美段一小段01480000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>嘉義市遠東段03770002地號</t>
@@ -88,9 +91,6 @@
     <t>屏東縣内埔鄉新東勢段02170012地號</t>
   </si>
   <si>
-    <t>1000分之53</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -100,99 +100,63 @@
     <t>10000分之399</t>
   </si>
   <si>
+    <t>蘇震清</t>
+  </si>
+  <si>
     <t>廖靖汝</t>
   </si>
   <si>
-    <t>蘇震清</t>
+    <t>95年08月01日</t>
+  </si>
+  <si>
+    <t>94年04月08日</t>
+  </si>
+  <si>
+    <t>100年09月13曰</t>
+  </si>
+  <si>
+    <t>100年11月16曰</t>
+  </si>
+  <si>
+    <t>100年11月17日</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>拍賣</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>L750000</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-17</t>
+  </si>
+  <si>
+    <t>tmp98701</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市溝美段一小段00875000建號</t>
   </si>
   <si>
     <t>87年11月03日</t>
   </si>
   <si>
-    <t>95年08月01日</t>
-  </si>
-  <si>
-    <t>94年04月08日</t>
-  </si>
-  <si>
-    <t>100年09月13曰</t>
-  </si>
-  <si>
-    <t>100年11月16曰</t>
-  </si>
-  <si>
-    <t>100年11月17日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>共有物分割</t>
-  </si>
-  <si>
-    <t>拍賣</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>L750000</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-17</t>
-  </si>
-  <si>
-    <t>tmp98701</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市溝美段一小段00875000建號</t>
-  </si>
-  <si>
     <t>嘉義市遠東段00064000建號</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記(取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取)凉因</t>
-  </si>
-  <si>
     <t>三陽本田</t>
   </si>
   <si>
@@ -202,21 +166,15 @@
     <t>.買賣</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>彰化商業銀行嘉義分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>大眾商業銀行屏東分行</t>
   </si>
   <si>
@@ -232,12 +190,6 @@
     <t>屏東廣東路郵局(第19支局）.</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>新臺靖</t>
   </si>
   <si>
@@ -247,81 +199,51 @@
     <t>蘇〇婕</t>
   </si>
   <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
     <t>(九）珠寶古董字畫及#</t>
   </si>
   <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>1額：新臺幣7600007t)</t>
+  </si>
+  <si>
     <t>財專種類</t>
   </si>
   <si>
     <t>台鳳高爾夫球場會員證</t>
   </si>
   <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
     <t>項1</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣7600007t)</t>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有.人</t>
   </si>
   <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
     <t>20LPL安泰分紅終身壽險</t>
   </si>
   <si>
+    <t>89.09.23109.09.23銀行扣款年繳53555</t>
+  </si>
+  <si>
     <t>20LPL安泰分红終身壽險</t>
   </si>
   <si>
     <t>安泰喬壽還本終身壽險</t>
   </si>
   <si>
-    <t>89.09.23109.09.23銀行扣款年繳53555</t>
-  </si>
-  <si>
     <t>89.09.23109.09.23銀行扣款年繳44009</t>
   </si>
   <si>
@@ -337,73 +259,61 @@
     <t>92.08.12112.08.12銀行扣款70084</t>
   </si>
   <si>
-    <t>種.類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
+    <t>綜合存款存摺(透支).</t>
+  </si>
+  <si>
+    <t>台灣銀行屏東分行屏東縣屏東市中山路</t>
+  </si>
+  <si>
+    <t>100年03月28日</t>
+  </si>
+  <si>
+    <t>貸款一中期擔保放款</t>
+  </si>
+  <si>
+    <t>長期擔保放款</t>
+  </si>
+  <si>
+    <t>綜合存款存摺(透支）</t>
+  </si>
+  <si>
+    <t>投資人</t>
+  </si>
+  <si>
+    <t>寧靖汝</t>
+  </si>
+  <si>
+    <t>投資事業名稱</t>
+  </si>
+  <si>
+    <t>南島休閒育樂股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣土地銀行屏東縣屏東市逢甲路</t>
+  </si>
+  <si>
+    <t>投資事業地址</t>
+  </si>
+  <si>
+    <t>高雄市精富路148號</t>
+  </si>
+  <si>
+    <t>投資金額</t>
   </si>
   <si>
     <t>取得（發生）時間</t>
   </si>
   <si>
+    <t>95年08月23日</t>
+  </si>
+  <si>
+    <t>房貸</t>
+  </si>
+  <si>
+    <t>貸款一治家成長貸款</t>
+  </si>
+  <si>
     <t>取得（發生）原因</t>
-  </si>
-  <si>
-    <t>綜合存款存摺(透支).</t>
-  </si>
-  <si>
-    <t>長期擔保放款</t>
-  </si>
-  <si>
-    <t>綜合存款存摺(透支）</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>寧靖汝</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>南島休閒育樂股份有限公司</t>
-  </si>
-  <si>
-    <t>台灣銀行屏東分行屏東縣屏東市中山路</t>
-  </si>
-  <si>
-    <t>台灣土地銀行屏東縣屏東市逢甲路</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>高雄市精富路148號</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>100年03月28日</t>
-  </si>
-  <si>
-    <t>95年08月23日</t>
-  </si>
-  <si>
-    <t>貸款一中期擔保放款</t>
-  </si>
-  <si>
-    <t>房貸</t>
-  </si>
-  <si>
-    <t>貸款一治家成長貸款</t>
   </si>
   <si>
     <t>投資</t>
@@ -765,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,19 +724,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>487</v>
+        <v>289</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -835,186 +751,210 @@
         <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2797714</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2">
         <v>1718</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2">
-        <v>2797714</v>
+        <v>1645714</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2">
         <v>1718</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2">
-        <v>1645714</v>
+        <v>493714</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2">
         <v>1718</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>33.7142857142857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>59</v>
+        <v>976</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2">
-        <v>493714</v>
+        <v>8228571</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2">
         <v>1718</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>557.714285714286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>976</v>
+        <v>1756</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -1023,172 +963,143 @@
         <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2">
-        <v>8228571</v>
+        <v>1480000</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2">
         <v>1718</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>1756</v>
+        <v>2505</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1480000</v>
+        <v>35</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2">
         <v>1718</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>2505</v>
+        <v>6797</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2">
+        <v>800000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M8" s="2">
         <v>1718</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6797</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="2">
-        <v>800000</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1718</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="2">
-        <v>21</v>
+      <c r="P8" s="2">
+        <v>0.0399</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>271.2003</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1206,76 +1117,50 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1">
+        <v>96.66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
-        <v>96.66</v>
+        <v>481.98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2">
-        <v>481.98</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="H2" s="2">
         <v>3785143</v>
       </c>
     </row>
@@ -1286,7 +1171,190 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1">
+        <v>830000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1">
+        <v>319388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2356348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2">
+        <v>674132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="2">
+        <v>69250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="2">
+        <v>450095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="2">
+        <v>142828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="2">
+        <v>366243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1294,45 +1362,58 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1997</v>
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>760000</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="2">
-        <v>830000</v>
       </c>
     </row>
   </sheetData>
@@ -1340,169 +1421,111 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2">
-        <v>319388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2356348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2">
-        <v>674132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="2">
-        <v>69250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>57</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="2">
-        <v>450095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>58</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="2">
-        <v>142828</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>59</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="2">
-        <v>366243</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1510,9 +1533,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1520,358 +1543,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5339618</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2">
+        <v>663000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
+      </c>
+      <c r="E3" s="2">
+        <v>371101</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2">
-        <v>760000</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>89</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>90</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>91</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>92</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>93</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>94</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>104</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5339618</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>105</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="2">
-        <v>663000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>106</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="2">
-        <v>371101</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>111</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇震清_2011-11-17_財產申報表_tmp98701.xlsx
+++ b/legislator/property/output/normal/蘇震清_2011-11-17_財產申報表_tmp98701.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>屏東縣屏東市溝美段一小段01480000地號</t>
+  </si>
+  <si>
     <t>嘉義市遠東段03770002地號</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>屏東縣内埔鄉新東勢段02170012地號</t>
   </si>
   <si>
+    <t>1000分之53</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
@@ -100,10 +106,13 @@
     <t>10000分之399</t>
   </si>
   <si>
+    <t>廖靖汝</t>
+  </si>
+  <si>
     <t>蘇震清</t>
   </si>
   <si>
-    <t>廖靖汝</t>
+    <t>87年11月03日</t>
   </si>
   <si>
     <t>95年08月01日</t>
@@ -121,13 +130,16 @@
     <t>100年11月17日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>共有物分割</t>
   </si>
   <si>
     <t>拍賣</t>
   </si>
   <si>
-    <t>買賣</t>
+    <t>(超過五年）</t>
   </si>
   <si>
     <t>L750000</t>
@@ -146,12 +158,6 @@
   </si>
   <si>
     <t>屏東縣屏東市溝美段一小段00875000建號</t>
-  </si>
-  <si>
-    <t>87年11月03日</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
   </si>
   <si>
     <t>嘉義市遠東段00064000建號</t>
@@ -675,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,372 +739,425 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>289</v>
+        <v>487</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2797714</v>
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2">
         <v>1718</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0.053</v>
       </c>
       <c r="Q2" s="2">
-        <v>289</v>
+        <v>25.811</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2">
-        <v>1645714</v>
+        <v>2797714</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2">
         <v>1718</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.571428571428571</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>108</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2">
-        <v>493714</v>
+        <v>1645714</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2">
         <v>1718</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.571428571428571</v>
       </c>
       <c r="Q4" s="2">
-        <v>33.7142857142857</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>976</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2">
-        <v>8228571</v>
+        <v>493714</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M5" s="2">
         <v>1718</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.571428571428571</v>
       </c>
       <c r="Q5" s="2">
-        <v>557.714285714286</v>
+        <v>33.7142857142857</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1756</v>
+        <v>976</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2">
-        <v>1480000</v>
+        <v>8228571</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M6" s="2">
         <v>1718</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Q6" s="2">
-        <v>1756</v>
+        <v>557.714285714286</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2505</v>
+        <v>1756</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="H7" s="2">
+        <v>1480000</v>
+      </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M7" s="2">
         <v>1718</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>2505</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>6797</v>
+        <v>2505</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="2">
-        <v>800000</v>
+        <v>36</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M8" s="2">
         <v>1718</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O8" s="2">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
         <v>21</v>
       </c>
-      <c r="P8" s="2">
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6797</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="2">
+        <v>800000</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
         <v>0.0399</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q9" s="2">
         <v>271.2003</v>
       </c>
     </row>
@@ -1109,59 +1168,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2">
+        <v>96.66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1">
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2">
+        <v>26</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>96.66</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2">
+        <v>481.98</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3785143</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2">
-        <v>481.98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="2">
-        <v>3785143</v>
+      <c r="P3" s="2">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>275.417142857143</v>
       </c>
     </row>
   </sheetData>
@@ -1171,29 +1337,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1">
         <v>1997</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1">
+        <v>830000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1">
+      <c r="C2" s="2">
+        <v>1997</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2">
         <v>830000</v>
       </c>
     </row>
@@ -1204,7 +1393,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1212,16 +1401,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1">
         <v>319388</v>
@@ -1229,121 +1418,141 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2">
-        <v>2356348</v>
+        <v>319388</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2">
-        <v>674132</v>
+        <v>2356348</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2">
-        <v>69250</v>
+        <v>674132</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F5" s="2">
-        <v>450095</v>
+        <v>69250</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="2">
-        <v>142828</v>
+        <v>450095</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="2">
+        <v>142828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>59</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2">
         <v>366243</v>
       </c>
     </row>
@@ -1354,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,58 +1571,75 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>84</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>760000</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1649,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1431,101 +1657,118 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>94</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>78</v>
+      <c r="B7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1535,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1543,114 +1786,137 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1">
         <v>5339618</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5339618</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="2">
-        <v>663000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
-        <v>371101</v>
+        <v>663000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="E4" s="2">
+        <v>371101</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>110</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>111</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="2">
         <v>1000000</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>98</v>
+      <c r="F6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇震清_2011-11-17_財產申報表_tmp98701.xlsx
+++ b/legislator/property/output/normal/蘇震清_2011-11-17_財產申報表_tmp98701.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>嘉義市遠東段00064000建號</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>三陽本田</t>
@@ -1337,38 +1340,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1">
-        <v>1997</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1">
-        <v>830000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -1377,13 +1401,34 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2">
         <v>830000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1401,13 +1446,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
@@ -1421,13 +1466,13 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -1441,13 +1486,13 @@
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1461,13 +1506,13 @@
         <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -1481,16 +1526,16 @@
         <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2">
         <v>69250</v>
@@ -1501,16 +1546,16 @@
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2">
         <v>450095</v>
@@ -1521,16 +1566,16 @@
         <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F7" s="2">
         <v>142828</v>
@@ -1541,16 +1586,16 @@
         <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2">
         <v>366243</v>
@@ -1571,14 +1616,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1588,16 +1633,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1605,22 +1650,22 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1628,7 +1673,7 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1657,16 +1702,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1674,16 +1719,16 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1691,16 +1736,16 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1708,16 +1753,16 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1725,16 +1770,16 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1742,16 +1787,16 @@
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1759,16 +1804,16 @@
         <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1786,22 +1831,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1">
         <v>5339618</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1809,22 +1854,22 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>5339618</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1832,13 +1877,13 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
         <v>663000</v>
@@ -1847,7 +1892,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1855,22 +1900,22 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
         <v>371101</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1878,22 +1923,22 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1901,22 +1946,22 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇震清_2011-11-17_財產申報表_tmp98701.xlsx
+++ b/legislator/property/output/normal/蘇震清_2011-11-17_財產申報表_tmp98701.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -163,6 +163,9 @@
     <t>嘉義市遠東段00064000建號</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
   </si>
   <si>
     <t>.買賣</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>彰化商業銀行嘉義分行</t>
@@ -1253,7 +1259,7 @@
         <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>42</v>
@@ -1306,7 +1312,7 @@
         <v>3785143</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>42</v>
@@ -1351,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1392,7 +1398,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -1401,16 +1407,16 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2">
         <v>830000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>42</v>
@@ -1446,13 +1452,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
@@ -1466,13 +1472,13 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -1486,13 +1492,13 @@
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1506,13 +1512,13 @@
         <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -1526,16 +1532,16 @@
         <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2">
         <v>69250</v>
@@ -1546,16 +1552,16 @@
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2">
         <v>450095</v>
@@ -1566,16 +1572,16 @@
         <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2">
         <v>142828</v>
@@ -1586,16 +1592,16 @@
         <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2">
         <v>366243</v>
@@ -1616,14 +1622,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1633,16 +1639,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1650,22 +1656,22 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1673,7 +1679,7 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1702,16 +1708,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1719,16 +1725,16 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1736,16 +1742,16 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1753,16 +1759,16 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1770,16 +1776,16 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1787,16 +1793,16 @@
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1804,16 +1810,16 @@
         <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1831,22 +1837,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1">
         <v>5339618</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1854,22 +1860,22 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>5339618</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1877,13 +1883,13 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2">
         <v>663000</v>
@@ -1892,7 +1898,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1900,22 +1906,22 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2">
         <v>371101</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1923,22 +1929,22 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1946,22 +1952,22 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇震清_2011-11-17_財產申報表_tmp98701.xlsx
+++ b/legislator/property/output/normal/蘇震清_2011-11-17_財產申報表_tmp98701.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -181,30 +181,39 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>彰化商業銀行嘉義分行</t>
   </si>
   <si>
+    <t>大眾商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>屏東繁華郵局（第23支局）</t>
+  </si>
+  <si>
+    <t>大眾商業银行屏東分行</t>
+  </si>
+  <si>
+    <t>嘉義後湖郵局（第15支局）</t>
+  </si>
+  <si>
+    <t>屏東廣東路郵局(第19支局）.</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>大眾商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>屏東繁華郵局（第23支局）</t>
-  </si>
-  <si>
-    <t>大眾商業银行屏東分行</t>
-  </si>
-  <si>
-    <t>嘉義後湖郵局（第15支局）</t>
-  </si>
-  <si>
-    <t>屏東廣東路郵局(第19支局）.</t>
-  </si>
-  <si>
     <t>新臺靖</t>
   </si>
   <si>
@@ -212,6 +221,9 @@
   </si>
   <si>
     <t>蘇〇婕</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>(九）珠寶古董字畫及#</t>
@@ -1444,13 +1456,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1461,24 +1473,45 @@
         <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1">
-        <v>319388</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -1486,19 +1519,40 @@
       <c r="F2" s="2">
         <v>319388</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1506,19 +1560,40 @@
       <c r="F3" s="2">
         <v>2356348</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -1526,85 +1601,190 @@
       <c r="F4" s="2">
         <v>674132</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F5" s="2">
         <v>69250</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2">
         <v>450095</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2">
         <v>142828</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F8" s="2">
         <v>366243</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="2">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1622,14 +1802,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1639,16 +1819,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1656,22 +1836,22 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1679,7 +1859,7 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1708,16 +1888,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1725,16 +1905,16 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1742,16 +1922,16 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1759,16 +1939,16 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1776,16 +1956,16 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1793,16 +1973,16 @@
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1810,16 +1990,16 @@
         <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1837,22 +2017,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1">
         <v>5339618</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1860,22 +2040,22 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
         <v>5339618</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1883,13 +2063,13 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2">
         <v>663000</v>
@@ -1898,7 +2078,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1906,22 +2086,22 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E4" s="2">
         <v>371101</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1929,22 +2109,22 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1952,22 +2132,22 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇震清_2011-11-17_財產申報表_tmp98701.xlsx
+++ b/legislator/property/output/normal/蘇震清_2011-11-17_財產申報表_tmp98701.xlsx
@@ -11,7 +11,7 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
+    <sheet name="珠寶、古董、字畫" sheetId="5" r:id="rId5"/>
     <sheet name="保險" sheetId="6" r:id="rId6"/>
     <sheet name="債務" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -226,34 +226,13 @@
     <t>deposit</t>
   </si>
   <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>1額：新臺幣7600007t)</t>
-  </si>
-  <si>
-    <t>財專種類</t>
+    <t>quantity</t>
   </si>
   <si>
     <t>台鳳高爾夫球場會員證</t>
   </si>
   <si>
-    <t>項1</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有.人</t>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -1794,83 +1773,83 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2">
+        <v>760000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2">
         <v>84</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>760000</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1888,16 +1867,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1905,16 +1884,16 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1922,16 +1901,16 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1939,16 +1918,16 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1956,16 +1935,16 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1973,16 +1952,16 @@
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1990,16 +1969,16 @@
         <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2017,22 +1996,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1">
         <v>5339618</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2040,22 +2019,22 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
         <v>5339618</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2063,13 +2042,13 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>663000</v>
@@ -2078,7 +2057,7 @@
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2086,22 +2065,22 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2">
         <v>371101</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2109,22 +2088,22 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2132,22 +2111,22 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2">
         <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇震清_2011-11-17_財產申報表_tmp98701.xlsx
+++ b/legislator/property/output/normal/蘇震清_2011-11-17_財產申報表_tmp98701.xlsx
@@ -14,13 +14,14 @@
     <sheet name="珠寶、古董、字畫" sheetId="5" r:id="rId5"/>
     <sheet name="保險" sheetId="6" r:id="rId6"/>
     <sheet name="債務" sheetId="7" r:id="rId7"/>
+    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -232,7 +233,10 @@
     <t>台鳳高爾夫球場會員證</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -241,88 +245,70 @@
     <t>20LPL安泰分紅終身壽險</t>
   </si>
   <si>
-    <t>89.09.23109.09.23銀行扣款年繳53555</t>
-  </si>
-  <si>
     <t>20LPL安泰分红終身壽險</t>
   </si>
   <si>
     <t>安泰喬壽還本終身壽險</t>
   </si>
   <si>
-    <t>89.09.23109.09.23銀行扣款年繳44009</t>
-  </si>
-  <si>
-    <t>89.09.23109.09.23銀行扣款年缴19274</t>
-  </si>
-  <si>
-    <t>89.09.23109.09.23銀行扣款年繳18476</t>
-  </si>
-  <si>
-    <t>92.08.12112.08.12銀行扣款年繳68846</t>
-  </si>
-  <si>
-    <t>92.08.12112.08.12銀行扣款70084</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>綜合存款存摺(透支).</t>
   </si>
   <si>
+    <t>長期擔保放款</t>
+  </si>
+  <si>
+    <t>綜合存款存摺(透支）</t>
+  </si>
+  <si>
     <t>台灣銀行屏東分行屏東縣屏東市中山路</t>
   </si>
   <si>
+    <t>台灣土地銀行屏東縣屏東市逢甲路</t>
+  </si>
+  <si>
     <t>100年03月28日</t>
   </si>
   <si>
     <t>貸款一中期擔保放款</t>
   </si>
   <si>
-    <t>長期擔保放款</t>
-  </si>
-  <si>
-    <t>綜合存款存摺(透支）</t>
-  </si>
-  <si>
-    <t>投資人</t>
+    <t>房貸</t>
+  </si>
+  <si>
+    <t>貸款一治家成長貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>寧靖汝</t>
   </si>
   <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
     <t>南島休閒育樂股份有限公司</t>
   </si>
   <si>
-    <t>台灣土地銀行屏東縣屏東市逢甲路</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
     <t>高雄市精富路148號</t>
   </si>
   <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
     <t>95年08月23日</t>
   </si>
   <si>
-    <t>房貸</t>
-  </si>
-  <si>
-    <t>貸款一治家成長貸款</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -1859,49 +1845,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>74</v>
@@ -1912,47 +1934,101 @@
       <c r="E3" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>75</v>
@@ -1961,15 +2037,33 @@
         <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>75</v>
@@ -1978,7 +2072,25 @@
         <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="2">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1988,38 +2100,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5339618</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -2031,24 +2164,45 @@
         <v>5339618</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>85</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
         <v>663000</v>
@@ -2057,15 +2211,36 @@
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>86</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1718</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -2077,56 +2252,129 @@
         <v>371101</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>110</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1718</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="2">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="2">
         <v>111</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
